--- a/산출물/NCP프로젝트_WBS_ver_20190710.xlsx
+++ b/산출물/NCP프로젝트_WBS_ver_20190710.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="239">
   <si>
     <t>이주현</t>
   </si>
@@ -248,23 +248,8 @@
     <t>DB</t>
   </si>
   <si>
-    <t>DB Master server 생성</t>
-  </si>
-  <si>
     <t>김상민</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB Slave server 생성</t>
-  </si>
-  <si>
-    <t>Master-Slave 관계 설정</t>
-  </si>
-  <si>
-    <t>2019-07-15</t>
-  </si>
-  <si>
-    <t>Data Import</t>
   </si>
   <si>
     <t>2019-07-16</t>
@@ -867,10 +852,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.2.3.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2.4.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -948,6 +929,22 @@
   </si>
   <si>
     <t>3.2.12.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB server 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi master (active-standby) 관계 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1049,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,12 +1065,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,45 +1293,45 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1624,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
@@ -1645,10 +1636,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -1656,22 +1647,22 @@
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
       <c r="H1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1679,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1688,7 +1679,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J2" s="6">
         <v>43654</v>
@@ -1707,7 +1698,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1715,7 +1706,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J3" s="6">
         <v>43654</v>
@@ -1730,21 +1721,21 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J4" s="6">
         <v>43654</v>
@@ -1756,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -1765,7 +1756,7 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -1773,7 +1764,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J5" s="6">
         <v>43654</v>
@@ -1788,21 +1779,21 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J6" s="6">
         <v>43654</v>
@@ -1814,26 +1805,26 @@
         <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J7" s="6">
         <v>43654</v>
@@ -1845,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -1853,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1862,7 +1853,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J8" s="6">
         <v>43656</v>
@@ -1881,7 +1872,7 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -1889,7 +1880,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J9" s="6">
         <v>43656</v>
@@ -1904,21 +1895,21 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J10" s="6">
         <v>43656</v>
@@ -1933,21 +1924,21 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J11" s="6">
         <v>43656</v>
@@ -1959,24 +1950,24 @@
         <v>2</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J12" s="6">
         <v>43657</v>
@@ -1991,21 +1982,21 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J13" s="6">
         <v>43657</v>
@@ -2020,21 +2011,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J14" s="6">
         <v>43657</v>
@@ -2053,7 +2044,7 @@
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -2061,7 +2052,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J15" s="6">
         <v>43657</v>
@@ -2076,21 +2067,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J16" s="6">
         <v>43657</v>
@@ -2102,26 +2093,26 @@
         <v>5</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J17" s="6">
         <v>43657</v>
@@ -2149,7 +2140,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K18" s="7">
         <v>43672</v>
@@ -2404,10 +2395,10 @@
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="44"/>
+      <c r="F28" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="53"/>
       <c r="H28" s="11" t="s">
         <v>26</v>
       </c>
@@ -2541,7 +2532,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
@@ -2570,7 +2561,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>48</v>
       </c>
@@ -2595,38 +2586,38 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="45" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="55">
         <v>43664</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="56">
         <v>1</v>
       </c>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M35" s="56"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="25"/>
@@ -2653,9 +2644,9 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="26" t="s">
@@ -2673,14 +2664,14 @@
       <c r="K37" s="14">
         <v>43668</v>
       </c>
-      <c r="L37" s="50">
+      <c r="L37" s="48">
         <v>19</v>
       </c>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="26"/>
@@ -2703,9 +2694,9 @@
       </c>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="26"/>
@@ -2732,9 +2723,9 @@
       </c>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="26"/>
@@ -2761,63 +2752,65 @@
       </c>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="49">
+        <v>43664</v>
+      </c>
+      <c r="L41" s="48">
+        <v>1</v>
+      </c>
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="49">
+        <v>43664</v>
+      </c>
+      <c r="L42" s="48">
+        <v>1</v>
+      </c>
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="54">
-        <v>43664</v>
-      </c>
-      <c r="L41" s="50">
-        <v>1</v>
-      </c>
-      <c r="M41" s="54"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="54">
-        <v>43664</v>
-      </c>
-      <c r="L42" s="50">
-        <v>1</v>
-      </c>
-      <c r="M42" s="54"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="26"/>
@@ -2833,27 +2826,27 @@
         <v>52</v>
       </c>
       <c r="K43" s="14">
-        <v>43664</v>
+        <v>43659</v>
       </c>
       <c r="L43" s="15">
         <v>4</v>
       </c>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>3</v>
@@ -2869,20 +2862,20 @@
       </c>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>3</v>
@@ -2898,109 +2891,109 @@
       </c>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="K46" s="14">
-        <v>43661</v>
+        <v>43659</v>
       </c>
       <c r="L46" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="D47" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K47" s="14">
-        <v>43662</v>
+        <v>43663</v>
       </c>
       <c r="L47" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="26"/>
-      <c r="D48" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="J48" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K48" s="14">
         <v>43663</v>
       </c>
       <c r="L48" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="14"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
       <c r="H49" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K49" s="14">
         <v>43663</v>
@@ -3012,27 +3005,23 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B50" s="35"/>
       <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26" t="s">
-        <v>68</v>
-      </c>
+      <c r="D50" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
-      <c r="H50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" s="14">
-        <v>43663</v>
+        <v>65</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="L50" s="15">
         <v>1</v>
@@ -3041,23 +3030,27 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="J51" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L51" s="15">
         <v>1</v>
@@ -3066,27 +3059,23 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" s="16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B52" s="35"/>
       <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26" t="s">
-        <v>71</v>
-      </c>
+      <c r="D52" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
-      <c r="H52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L52" s="15">
         <v>1</v>
@@ -3095,23 +3084,27 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B53" s="35"/>
       <c r="C53" s="26"/>
-      <c r="D53" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="J53" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L53" s="15">
         <v>1</v>
@@ -3120,27 +3113,23 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B54" s="35"/>
       <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26" t="s">
-        <v>73</v>
-      </c>
+      <c r="D54" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
-      <c r="H54" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L54" s="15">
         <v>1</v>
@@ -3149,23 +3138,27 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" s="16" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B55" s="35"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="J55" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L55" s="15">
         <v>1</v>
@@ -3174,108 +3167,108 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" s="16" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26" t="s">
-        <v>75</v>
-      </c>
+      <c r="D56" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
-      <c r="H56" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L56" s="15">
-        <v>1</v>
+      <c r="H56" s="13"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="L56" s="48">
+        <v>0</v>
       </c>
       <c r="M56" s="14"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="16" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B57" s="35"/>
       <c r="C57" s="26"/>
-      <c r="D57" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="K57" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="L57" s="50">
+      <c r="H57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="K57" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="48">
         <v>0</v>
       </c>
       <c r="M57" s="14"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B58" s="35"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26" t="s">
-        <v>77</v>
-      </c>
+      <c r="D58" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="26"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
-      <c r="H58" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="J58" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="L58" s="50">
-        <v>0</v>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14">
+        <v>43664</v>
+      </c>
+      <c r="K58" s="14">
+        <v>43664</v>
+      </c>
+      <c r="L58" s="15">
+        <v>1</v>
       </c>
       <c r="M58" s="14"/>
-      <c r="N58" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
+      <c r="N58" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="26"/>
-      <c r="D59" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="J59" s="14">
         <v>43664</v>
       </c>
@@ -3289,27 +3282,23 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="16" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B60" s="35"/>
       <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26" t="s">
-        <v>79</v>
-      </c>
+      <c r="D60" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="26"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="14">
-        <v>43664</v>
-      </c>
-      <c r="K60" s="14">
-        <v>43664</v>
+      <c r="K60" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="L60" s="15">
         <v>1</v>
@@ -3318,23 +3307,27 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="26"/>
-      <c r="D61" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="H61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="J61" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L61" s="15">
         <v>1</v>
@@ -3342,211 +3335,209 @@
       <c r="M61" s="14"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K62" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="L62" s="48">
+        <v>2</v>
+      </c>
+      <c r="M62" s="49"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K63" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="L63" s="48">
+        <v>2</v>
+      </c>
+      <c r="M63" s="49"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A64" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K64" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="L64" s="48">
+        <v>2</v>
+      </c>
+      <c r="M64" s="49"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K65" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="L65" s="48">
+        <v>2</v>
+      </c>
+      <c r="M65" s="49"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="L66" s="48">
+        <v>1</v>
+      </c>
+      <c r="M66" s="49"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="13" t="s">
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L62" s="15">
+      <c r="J67" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="K67" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="L67" s="48">
         <v>1</v>
       </c>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A63" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="K63" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="L63" s="50">
-        <v>2</v>
-      </c>
-      <c r="M63" s="54"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A64" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="K64" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="L64" s="50">
-        <v>2</v>
-      </c>
-      <c r="M64" s="54"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="K65" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="L65" s="50">
-        <v>2</v>
-      </c>
-      <c r="M65" s="54"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="K66" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="L66" s="50">
-        <v>2</v>
-      </c>
-      <c r="M66" s="54"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="K67" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="L67" s="50">
-        <v>1</v>
-      </c>
-      <c r="M67" s="54"/>
+      <c r="M67" s="49"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="L68" s="50">
-        <v>1</v>
-      </c>
-      <c r="M68" s="54"/>
+      <c r="A68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" s="18">
+        <v>30</v>
+      </c>
+      <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" s="36"/>
-      <c r="C69" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30" t="s">
+        <v>182</v>
+      </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
@@ -3558,83 +3549,85 @@
         <v>30</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L69" s="18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B70" s="36"/>
       <c r="C70" s="30"/>
-      <c r="D70" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F70" s="30"/>
       <c r="G70" s="30"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="I70" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L70" s="18">
-        <v>16</v>
-      </c>
-      <c r="M70" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M70" s="19"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="30"/>
       <c r="H71" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="L71" s="18">
+        <v>8</v>
       </c>
       <c r="M71" s="19"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
       <c r="H72" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>27</v>
@@ -3643,7 +3636,7 @@
         <v>30</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L72" s="18">
         <v>8</v>
@@ -3652,112 +3645,112 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="D73" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
-      <c r="H73" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L73" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M73" s="19"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
-      <c r="H74" s="8"/>
+      <c r="H74" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="I74" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L74" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M74" s="19"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
       <c r="H75" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L75" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" s="19"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="30"/>
       <c r="H76" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L76" s="18">
         <v>2</v>
@@ -3766,83 +3759,83 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B77" s="36"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="D77" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="30"/>
       <c r="F77" s="30"/>
       <c r="G77" s="30"/>
-      <c r="H77" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L77" s="18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M77" s="19"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B78" s="36"/>
       <c r="C78" s="30"/>
-      <c r="D78" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="I78" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L78" s="18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M78" s="19"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B79" s="36"/>
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
       <c r="H79" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L79" s="18">
         <v>2</v>
@@ -3851,27 +3844,27 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
       <c r="H80" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L80" s="18">
         <v>2</v>
@@ -3880,18 +3873,18 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
       <c r="H81" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>27</v>
@@ -3900,50 +3893,48 @@
         <v>98</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L81" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M81" s="19"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L82" s="18">
+      <c r="A82" s="20">
+        <v>4</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="J82" s="7">
+        <v>43664</v>
+      </c>
+      <c r="K82" s="7">
+        <v>43670</v>
+      </c>
+      <c r="L82" s="21">
+        <v>6</v>
+      </c>
       <c r="M82" s="19"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83" s="20">
-        <v>4</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="27"/>
+      <c r="A83" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B83" s="38"/>
+      <c r="C83" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
@@ -3964,18 +3955,20 @@
       <c r="M83" s="19"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" s="22">
-        <v>4.0999999999999996</v>
+      <c r="A84" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="B84" s="38"/>
-      <c r="C84" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
-      <c r="H84" s="21"/>
+      <c r="H84" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="I84" s="21" t="s">
         <v>3</v>
       </c>
@@ -3983,27 +3976,27 @@
         <v>43664</v>
       </c>
       <c r="K84" s="7">
-        <v>43670</v>
+        <v>43665</v>
       </c>
       <c r="L84" s="21">
-        <v>6</v>
-      </c>
-      <c r="M84" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="M84" s="21"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B85" s="38"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="21" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="I85" s="21" t="s">
         <v>3</v>
@@ -4021,27 +4014,27 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B86" s="38"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="21" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I86" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J86" s="7">
-        <v>43664</v>
+        <v>43669</v>
       </c>
       <c r="K86" s="7">
-        <v>43665</v>
+        <v>43670</v>
       </c>
       <c r="L86" s="21">
         <v>2</v>
@@ -4049,42 +4042,40 @@
       <c r="M86" s="21"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="38"/>
+      <c r="A87" s="20">
+        <v>5</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>119</v>
+      </c>
       <c r="C87" s="27"/>
-      <c r="D87" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="D87" s="27"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
-      <c r="H87" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="H87" s="21"/>
       <c r="I87" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J87" s="7">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="K87" s="7">
-        <v>43670</v>
+        <v>43672</v>
       </c>
       <c r="L87" s="21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M87" s="21"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="20">
-        <v>5</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="27"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
@@ -4100,23 +4091,25 @@
         <v>43672</v>
       </c>
       <c r="L88" s="21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M88" s="21"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" s="20">
-        <v>5.0999999999999996</v>
+      <c r="A89" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="B89" s="38"/>
-      <c r="C89" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
-      <c r="H89" s="21"/>
+      <c r="H89" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="I89" s="21" t="s">
         <v>3</v>
       </c>
@@ -4132,20 +4125,18 @@
       <c r="M89" s="21"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27" t="s">
-        <v>127</v>
-      </c>
+      <c r="A90" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="B90" s="39"/>
+      <c r="C90" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="27"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
-      <c r="H90" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="H90" s="21"/>
       <c r="I90" s="21" t="s">
         <v>3</v>
       </c>
@@ -4156,23 +4147,25 @@
         <v>43672</v>
       </c>
       <c r="L90" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M90" s="21"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" s="27"/>
+      <c r="A91" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="38"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27" t="s">
+        <v>125</v>
+      </c>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
-      <c r="H91" s="21"/>
+      <c r="H91" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="I91" s="21" t="s">
         <v>3</v>
       </c>
@@ -4183,24 +4176,26 @@
         <v>43672</v>
       </c>
       <c r="L91" s="21">
-        <v>6</v>
-      </c>
-      <c r="M91" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B92" s="38"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="21" t="s">
         <v>3</v>
@@ -4215,38 +4210,7 @@
         <v>3</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I93" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J93" s="7">
-        <v>43670</v>
-      </c>
-      <c r="K93" s="7">
-        <v>43672</v>
-      </c>
-      <c r="L93" s="21">
-        <v>3</v>
-      </c>
-      <c r="M93" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
